--- a/biology/Médecine/Fissure_pétro-tympanique/Fissure_pétro-tympanique.xlsx
+++ b/biology/Médecine/Fissure_pétro-tympanique/Fissure_pétro-tympanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fissure_p%C3%A9tro-tympanique</t>
+          <t>Fissure_pétro-tympanique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fissure pétro-tympanique (ou scissure pétro-tympanique ou scissure tympano-pétreuse antérieure) est une fissure de l'os temporal qui va de l'articulation temporo-mandibulaire à la cavité tympanique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fissure pétro-tympanique (ou scissure pétro-tympanique ou scissure tympano-pétreuse antérieure) est une fissure de l'os temporal qui va de l'articulation temporo-mandibulaire à la cavité tympanique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fissure_p%C3%A9tro-tympanique</t>
+          <t>Fissure_pétro-tympanique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fissure pétro-tympanique sépare la fosse mandibulaire en deux parties.
 Elle s'ouvre au-dessus et devant l'anneau osseux dans lequel s'insère la membrane tympanique.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fissure_p%C3%A9tro-tympanique</t>
+          <t>Fissure_pétro-tympanique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une branche du nerf crânien VII, la corde du tympan, traverse la fissure pour se joindre au nerf lingual.
 La fissure permet le passage de l'artère tympanique antérieure et des veines tympaniques.
